--- a/SubcellDiv.xlsx
+++ b/SubcellDiv.xlsx
@@ -8,38 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil3/Documents/calcs/SQ_multijunc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F296D71-76A1-4B4F-B135-2F132153B1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507EAAC9-AAF8-5243-B24B-80BBD6442B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{F39901F2-9B9C-3F40-87C6-17C8C951FC81}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="23500" windowHeight="12760" xr2:uid="{F39901F2-9B9C-3F40-87C6-17C8C951FC81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AA$3:$AA$48</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AB$3:$AB$48</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$AK$3:$AK$48</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$O$3:$O$48</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$P$3:$P$48</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$Q$3:$Q$48</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$R$3:$R$48</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$S$3:$S$48</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$T$3:$T$48</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$U$3:$U$48</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$V$3:$V$48</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$W$3:$W$48</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AC$3:$AC$48</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$X$3:$X$48</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$Y$3:$Y$48</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$Z$3:$Z$48</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AD$3:$AD$48</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AE$3:$AE$48</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AF$3:$AF$48</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$AG$3:$AG$48</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$AH$3:$AH$48</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$AI$3:$AI$48</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$AJ$3:$AJ$48</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$3,Sheet1!$C$15</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$17</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -52,7 +29,7 @@
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$C$20</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$C$22</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -66,7 +43,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Ip (mA)</t>
   </si>
@@ -127,16 +104,30 @@
     <t>n_2</t>
   </si>
   <si>
-    <t>f1</t>
+    <t>n_1+n_2</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>1-f</t>
+  </si>
+  <si>
+    <t>I_p1</t>
+  </si>
+  <si>
+    <t>I_p2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -181,18 +172,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55374093-DF6B-F344-A215-BF7E4431A2FB}">
-  <dimension ref="B2:AN109"/>
+  <dimension ref="B2:AN111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,20 +514,26 @@
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <f>C6+C13</f>
+        <v>3</v>
+      </c>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.49207717498314751</v>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -564,12 +562,6 @@
       <c r="AN3" s="2"/>
     </row>
     <row r="4" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2.5899999999999999E-2</v>
-      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -634,9 +626,21 @@
       <c r="AN5" s="2"/>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>1-F13</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="G6">
+        <f>F6*C2</f>
+        <v>0.66666666666666674</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -667,14 +671,20 @@
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1E-10</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:G9" si="0">-F14</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.31748764775559685</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -705,10 +715,19 @@
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1E-10</v>
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f>G10</f>
+        <v>0.9841543143889302</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.6666666666666669E-11</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -742,12 +761,14 @@
       <c r="AN8" s="2"/>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <f>C3*C2</f>
-        <v>0.98415434996629503</v>
+      <c r="C9" s="1"/>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-11</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -782,9 +803,14 @@
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G6:G9)</f>
+        <v>0.9841543143889302</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -814,11 +840,13 @@
       <c r="AN10" s="2"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
+      <c r="C11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8">
+        <f>1-G18</f>
+        <v>0.4920771571944651</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -852,12 +880,7 @@
       <c r="AN11" s="2"/>
     </row>
     <row r="12" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1E-10</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -891,11 +914,18 @@
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <f>(1-C3)*C2</f>
-        <v>1.015845650033705</v>
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <f>C13/G2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G13">
+        <f>F13*C2</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -929,6 +959,20 @@
       <c r="AN13" s="2"/>
     </row>
     <row r="14" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1E-10</v>
+      </c>
+      <c r="F14">
+        <f>(C6-C13)/G2</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="G14" s="7">
+        <f>F14*C17</f>
+        <v>-0.31748764775559685</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -962,19 +1006,59 @@
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.95246206760085139</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>G17</f>
+        <v>1.0158456856110698</v>
+      </c>
+      <c r="F15">
+        <f>C13/G2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G15" s="1">
+        <f>F15*C7</f>
+        <v>6.6666666666666669E-11</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3">
-        <f>C$4*C$7*LN((C9-C$15)/C8+1)</f>
-        <v>0.50697097313348516</v>
+      <c r="F16">
+        <f>-C6/G2</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="G16" s="1">
+        <f>F16*C14</f>
+        <v>-3.3333333333333335E-11</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1009,50 +1093,33 @@
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3">
-        <f>C$4*C$11*LN((C13-C$15)/C12+1)</f>
-        <v>1.049846167365013</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.9524629432667906</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <f>SUM(G13:G16)</f>
+        <v>1.0158456856110698</v>
+      </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
-        <f>C16+C17</f>
-        <v>1.5568171404984983</v>
+        <f>C$3*C$6*LN((C8-C$17)/C7+1)</f>
+        <v>0.50697022842407813</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="8">
+        <f>G17/C2</f>
+        <v>0.5079228428055349</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1086,6 +1153,13 @@
       <c r="AN18" s="2"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <f>C$3*C$13*LN((C15-C$17)/C14+1)</f>
+        <v>1.0498454808011615</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1119,11 +1193,11 @@
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8">
-        <f>C15*C18</f>
-        <v>1.4828092725156448</v>
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <f>C18+C19</f>
+        <v>1.5568157092252397</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1157,6 +1231,7 @@
       <c r="AN20" s="2"/>
     </row>
     <row r="21" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="G21" s="9"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1189,6 +1264,13 @@
       <c r="AN21" s="2"/>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6">
+        <f>C17*C20</f>
+        <v>1.4828092725326478</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1504,6 +1586,9 @@
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
     </row>
     <row r="32" spans="2:40" x14ac:dyDescent="0.2">
       <c r="H32" s="1"/>
@@ -1533,6 +1618,9 @@
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
     </row>
     <row r="33" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H33" s="1"/>
@@ -1998,100 +2086,146 @@
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
     </row>
-    <row r="49" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+    </row>
+    <row r="50" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2"/>
+    </row>
+    <row r="51" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="8:37" x14ac:dyDescent="0.2">
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -2367,6 +2501,18 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
     </row>
+    <row r="110" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
